--- a/attendance-files/LAB/LAB (D) Attendance Sheet.xlsx
+++ b/attendance-files/LAB/LAB (D) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="178">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1673,8 +1673,12 @@
       <c r="N7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
+      <c r="O7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q7" s="30"/>
       <c r="R7" s="30"/>
       <c r="S7" s="30"/>
@@ -1707,7 +1711,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>20</v>
@@ -1733,8 +1737,12 @@
       <c r="N8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
+      <c r="O8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q8" s="35"/>
       <c r="R8" s="35"/>
       <c r="S8" s="35"/>
@@ -1767,7 +1775,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>20</v>
@@ -1793,8 +1801,12 @@
       <c r="N9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
+      <c r="O9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q9" s="35"/>
       <c r="R9" s="35"/>
       <c r="S9" s="35"/>
@@ -1827,7 +1839,7 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>20</v>
@@ -1853,8 +1865,12 @@
       <c r="N10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
+      <c r="O10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q10" s="35"/>
       <c r="R10" s="35"/>
       <c r="S10" s="35"/>
@@ -1887,7 +1903,7 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>20</v>
@@ -1913,8 +1929,12 @@
       <c r="N11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
+      <c r="O11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q11" s="35"/>
       <c r="R11" s="35"/>
       <c r="S11" s="35"/>
@@ -1947,7 +1967,7 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G12" s="28" t="s">
         <v>20</v>
@@ -1973,8 +1993,12 @@
       <c r="N12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
+      <c r="O12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q12" s="35"/>
       <c r="R12" s="35"/>
       <c r="S12" s="35"/>
@@ -2007,7 +2031,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>20</v>
@@ -2033,8 +2057,12 @@
       <c r="N13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
+      <c r="O13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q13" s="35"/>
       <c r="R13" s="35"/>
       <c r="S13" s="35"/>
@@ -2067,7 +2095,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G14" s="28" t="s">
         <v>20</v>
@@ -2093,8 +2121,12 @@
       <c r="N14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
+      <c r="O14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q14" s="35"/>
       <c r="R14" s="35"/>
       <c r="S14" s="35"/>
@@ -2127,7 +2159,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G15" s="28" t="s">
         <v>20</v>
@@ -2153,8 +2185,12 @@
       <c r="N15" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
+      <c r="O15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q15" s="35"/>
       <c r="R15" s="35"/>
       <c r="S15" s="35"/>
@@ -2187,7 +2223,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G16" s="28" t="s">
         <v>20</v>
@@ -2213,8 +2249,12 @@
       <c r="N16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
+      <c r="O16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q16" s="35"/>
       <c r="R16" s="35"/>
       <c r="S16" s="35"/>
@@ -2247,7 +2287,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G17" s="28" t="s">
         <v>20</v>
@@ -2273,8 +2313,12 @@
       <c r="N17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
+      <c r="O17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q17" s="35"/>
       <c r="R17" s="35"/>
       <c r="S17" s="35"/>
@@ -2307,7 +2351,7 @@
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G18" s="28" t="s">
         <v>20</v>
@@ -2333,8 +2377,12 @@
       <c r="N18" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
+      <c r="O18" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q18" s="35"/>
       <c r="R18" s="35"/>
       <c r="S18" s="35"/>
@@ -2367,7 +2415,7 @@
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G19" s="28" t="s">
         <v>20</v>
@@ -2393,8 +2441,12 @@
       <c r="N19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
+      <c r="O19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q19" s="35"/>
       <c r="R19" s="35"/>
       <c r="S19" s="35"/>
@@ -2427,7 +2479,7 @@
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G20" s="28" t="s">
         <v>20</v>
@@ -2453,8 +2505,12 @@
       <c r="N20" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
+      <c r="O20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q20" s="35"/>
       <c r="R20" s="35"/>
       <c r="S20" s="35"/>
@@ -2487,7 +2543,7 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>20</v>
@@ -2513,8 +2569,12 @@
       <c r="N21" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
+      <c r="O21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q21" s="35"/>
       <c r="R21" s="35"/>
       <c r="S21" s="35"/>
@@ -2543,7 +2603,7 @@
       </c>
       <c r="E22" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
@@ -2573,8 +2633,12 @@
       <c r="N22" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
+      <c r="O22" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="P22" s="29" t="s">
+        <v>23</v>
+      </c>
       <c r="Q22" s="35"/>
       <c r="R22" s="35"/>
       <c r="S22" s="35"/>
@@ -2607,7 +2671,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G23" s="28" t="s">
         <v>20</v>
@@ -2633,8 +2697,12 @@
       <c r="N23" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
+      <c r="O23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P23" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q23" s="35"/>
       <c r="R23" s="35"/>
       <c r="S23" s="35"/>
@@ -2667,7 +2735,7 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G24" s="28" t="s">
         <v>20</v>
@@ -2693,8 +2761,12 @@
       <c r="N24" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
+      <c r="O24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q24" s="35"/>
       <c r="R24" s="35"/>
       <c r="S24" s="35"/>
@@ -2727,7 +2799,7 @@
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G25" s="28" t="s">
         <v>20</v>
@@ -2753,8 +2825,12 @@
       <c r="N25" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
+      <c r="O25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P25" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q25" s="35"/>
       <c r="R25" s="35"/>
       <c r="S25" s="35"/>
@@ -2787,7 +2863,7 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G26" s="28" t="s">
         <v>20</v>
@@ -2813,8 +2889,12 @@
       <c r="N26" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
+      <c r="O26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P26" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q26" s="35"/>
       <c r="R26" s="35"/>
       <c r="S26" s="35"/>
@@ -2847,7 +2927,7 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G27" s="28" t="s">
         <v>20</v>
@@ -2873,8 +2953,12 @@
       <c r="N27" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
+      <c r="O27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P27" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q27" s="35"/>
       <c r="R27" s="35"/>
       <c r="S27" s="35"/>
@@ -2907,7 +2991,7 @@
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G28" s="28" t="s">
         <v>20</v>
@@ -2933,8 +3017,12 @@
       <c r="N28" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
+      <c r="O28" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P28" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q28" s="35"/>
       <c r="R28" s="35"/>
       <c r="S28" s="35"/>
@@ -2967,7 +3055,7 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G29" s="28" t="s">
         <v>20</v>
@@ -2993,8 +3081,12 @@
       <c r="N29" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
+      <c r="O29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P29" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q29" s="35"/>
       <c r="R29" s="35"/>
       <c r="S29" s="35"/>
@@ -3027,7 +3119,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G30" s="28" t="s">
         <v>20</v>
@@ -3053,8 +3145,12 @@
       <c r="N30" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
+      <c r="O30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P30" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q30" s="35"/>
       <c r="R30" s="35"/>
       <c r="S30" s="35"/>
@@ -3087,7 +3183,7 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G31" s="28" t="s">
         <v>20</v>
@@ -3113,8 +3209,12 @@
       <c r="N31" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
+      <c r="O31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P31" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q31" s="35"/>
       <c r="R31" s="35"/>
       <c r="S31" s="35"/>
@@ -3147,7 +3247,7 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G32" s="28" t="s">
         <v>20</v>
@@ -3173,8 +3273,12 @@
       <c r="N32" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
+      <c r="O32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P32" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q32" s="35"/>
       <c r="R32" s="35"/>
       <c r="S32" s="35"/>
@@ -3207,7 +3311,7 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G33" s="28" t="s">
         <v>20</v>
@@ -3233,8 +3337,12 @@
       <c r="N33" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
+      <c r="O33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P33" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q33" s="35"/>
       <c r="R33" s="35"/>
       <c r="S33" s="35"/>
@@ -3267,7 +3375,7 @@
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G34" s="28" t="s">
         <v>20</v>
@@ -3293,8 +3401,12 @@
       <c r="N34" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
+      <c r="O34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P34" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q34" s="35"/>
       <c r="R34" s="35"/>
       <c r="S34" s="35"/>
@@ -3327,7 +3439,7 @@
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G35" s="28" t="s">
         <v>20</v>
@@ -3353,8 +3465,12 @@
       <c r="N35" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O35" s="35"/>
-      <c r="P35" s="35"/>
+      <c r="O35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P35" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q35" s="35"/>
       <c r="R35" s="35"/>
       <c r="S35" s="35"/>
@@ -3387,7 +3503,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G36" s="28" t="s">
         <v>20</v>
@@ -3413,8 +3529,12 @@
       <c r="N36" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O36" s="35"/>
-      <c r="P36" s="35"/>
+      <c r="O36" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P36" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q36" s="35"/>
       <c r="R36" s="35"/>
       <c r="S36" s="35"/>
@@ -3447,7 +3567,7 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G37" s="28" t="s">
         <v>20</v>
@@ -3473,8 +3593,12 @@
       <c r="N37" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
+      <c r="O37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P37" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q37" s="35"/>
       <c r="R37" s="35"/>
       <c r="S37" s="35"/>
@@ -3507,7 +3631,7 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G38" s="28" t="s">
         <v>20</v>
@@ -3533,8 +3657,12 @@
       <c r="N38" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O38" s="35"/>
-      <c r="P38" s="35"/>
+      <c r="O38" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P38" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q38" s="35"/>
       <c r="R38" s="35"/>
       <c r="S38" s="35"/>
@@ -3567,7 +3695,7 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G39" s="28" t="s">
         <v>20</v>
@@ -3593,8 +3721,12 @@
       <c r="N39" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O39" s="35"/>
-      <c r="P39" s="35"/>
+      <c r="O39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P39" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q39" s="35"/>
       <c r="R39" s="35"/>
       <c r="S39" s="35"/>
@@ -3627,7 +3759,7 @@
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G40" s="28" t="s">
         <v>20</v>
@@ -3653,8 +3785,12 @@
       <c r="N40" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O40" s="35"/>
-      <c r="P40" s="35"/>
+      <c r="O40" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P40" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q40" s="35"/>
       <c r="R40" s="35"/>
       <c r="S40" s="35"/>
@@ -3687,7 +3823,7 @@
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G41" s="28" t="s">
         <v>20</v>
@@ -3713,8 +3849,12 @@
       <c r="N41" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O41" s="35"/>
-      <c r="P41" s="35"/>
+      <c r="O41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P41" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q41" s="35"/>
       <c r="R41" s="35"/>
       <c r="S41" s="35"/>
@@ -3747,7 +3887,7 @@
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G42" s="28" t="s">
         <v>20</v>
@@ -3773,8 +3913,12 @@
       <c r="N42" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O42" s="35"/>
-      <c r="P42" s="35"/>
+      <c r="O42" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P42" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q42" s="35"/>
       <c r="R42" s="35"/>
       <c r="S42" s="35"/>
@@ -3807,7 +3951,7 @@
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G43" s="28" t="s">
         <v>20</v>
@@ -3833,8 +3977,12 @@
       <c r="N43" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O43" s="35"/>
-      <c r="P43" s="35"/>
+      <c r="O43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P43" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q43" s="35"/>
       <c r="R43" s="35"/>
       <c r="S43" s="35"/>
@@ -3867,7 +4015,7 @@
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G44" s="28" t="s">
         <v>20</v>
@@ -3893,8 +4041,12 @@
       <c r="N44" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O44" s="35"/>
-      <c r="P44" s="35"/>
+      <c r="O44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P44" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q44" s="35"/>
       <c r="R44" s="35"/>
       <c r="S44" s="35"/>
@@ -3927,7 +4079,7 @@
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G45" s="28" t="s">
         <v>20</v>
@@ -3953,8 +4105,12 @@
       <c r="N45" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O45" s="35"/>
-      <c r="P45" s="35"/>
+      <c r="O45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P45" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q45" s="35"/>
       <c r="R45" s="35"/>
       <c r="S45" s="35"/>
@@ -3987,7 +4143,7 @@
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G46" s="28" t="s">
         <v>20</v>
@@ -4013,8 +4169,12 @@
       <c r="N46" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O46" s="35"/>
-      <c r="P46" s="35"/>
+      <c r="O46" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P46" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q46" s="35"/>
       <c r="R46" s="35"/>
       <c r="S46" s="35"/>
@@ -4047,7 +4207,7 @@
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G47" s="28" t="s">
         <v>20</v>
@@ -4073,8 +4233,12 @@
       <c r="N47" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O47" s="35"/>
-      <c r="P47" s="35"/>
+      <c r="O47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P47" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q47" s="35"/>
       <c r="R47" s="35"/>
       <c r="S47" s="35"/>
@@ -4107,7 +4271,7 @@
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G48" s="28" t="s">
         <v>20</v>
@@ -4133,8 +4297,12 @@
       <c r="N48" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O48" s="35"/>
-      <c r="P48" s="35"/>
+      <c r="O48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P48" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q48" s="35"/>
       <c r="R48" s="35"/>
       <c r="S48" s="35"/>
@@ -4167,7 +4335,7 @@
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G49" s="28" t="s">
         <v>20</v>
@@ -4193,8 +4361,12 @@
       <c r="N49" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O49" s="35"/>
-      <c r="P49" s="35"/>
+      <c r="O49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P49" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q49" s="35"/>
       <c r="R49" s="35"/>
       <c r="S49" s="35"/>
@@ -4227,7 +4399,7 @@
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G50" s="28" t="s">
         <v>20</v>
@@ -4253,8 +4425,12 @@
       <c r="N50" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O50" s="35"/>
-      <c r="P50" s="35"/>
+      <c r="O50" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P50" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q50" s="35"/>
       <c r="R50" s="35"/>
       <c r="S50" s="35"/>
@@ -4283,7 +4459,7 @@
       </c>
       <c r="E51" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
@@ -4313,8 +4489,12 @@
       <c r="N51" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="O51" s="35"/>
-      <c r="P51" s="35"/>
+      <c r="O51" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="P51" s="29" t="s">
+        <v>23</v>
+      </c>
       <c r="Q51" s="35"/>
       <c r="R51" s="35"/>
       <c r="S51" s="35"/>
@@ -4343,11 +4523,11 @@
       </c>
       <c r="E52" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G52" s="28" t="s">
         <v>20</v>
@@ -4373,8 +4553,12 @@
       <c r="N52" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="O52" s="35"/>
-      <c r="P52" s="35"/>
+      <c r="O52" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="P52" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q52" s="35"/>
       <c r="R52" s="35"/>
       <c r="S52" s="35"/>
@@ -4403,7 +4587,7 @@
       </c>
       <c r="E53" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
@@ -4433,8 +4617,12 @@
       <c r="N53" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O53" s="35"/>
-      <c r="P53" s="35"/>
+      <c r="O53" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="P53" s="29" t="s">
+        <v>23</v>
+      </c>
       <c r="Q53" s="35"/>
       <c r="R53" s="35"/>
       <c r="S53" s="35"/>
@@ -4467,7 +4655,7 @@
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G54" s="28" t="s">
         <v>20</v>
@@ -4493,8 +4681,12 @@
       <c r="N54" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O54" s="35"/>
-      <c r="P54" s="35"/>
+      <c r="O54" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P54" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q54" s="35"/>
       <c r="R54" s="35"/>
       <c r="S54" s="35"/>
@@ -4527,7 +4719,7 @@
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G55" s="28" t="s">
         <v>20</v>
@@ -4553,8 +4745,12 @@
       <c r="N55" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O55" s="35"/>
-      <c r="P55" s="35"/>
+      <c r="O55" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P55" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q55" s="35"/>
       <c r="R55" s="35"/>
       <c r="S55" s="35"/>
@@ -4583,7 +4779,7 @@
       </c>
       <c r="E56" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
@@ -4613,8 +4809,12 @@
       <c r="N56" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O56" s="35"/>
-      <c r="P56" s="35"/>
+      <c r="O56" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="P56" s="29" t="s">
+        <v>23</v>
+      </c>
       <c r="Q56" s="35"/>
       <c r="R56" s="35"/>
       <c r="S56" s="35"/>
@@ -4643,11 +4843,11 @@
       </c>
       <c r="E57" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G57" s="28" t="s">
         <v>20</v>
@@ -4673,8 +4873,12 @@
       <c r="N57" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="O57" s="35"/>
-      <c r="P57" s="35"/>
+      <c r="O57" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="P57" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q57" s="35"/>
       <c r="R57" s="35"/>
       <c r="S57" s="35"/>
@@ -4707,7 +4911,7 @@
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G58" s="28" t="s">
         <v>20</v>
@@ -4733,8 +4937,12 @@
       <c r="N58" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O58" s="35"/>
-      <c r="P58" s="35"/>
+      <c r="O58" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P58" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q58" s="35"/>
       <c r="R58" s="35"/>
       <c r="S58" s="35"/>
@@ -4767,7 +4975,7 @@
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G59" s="28" t="s">
         <v>20</v>
@@ -4793,8 +5001,12 @@
       <c r="N59" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O59" s="35"/>
-      <c r="P59" s="35"/>
+      <c r="O59" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P59" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q59" s="35"/>
       <c r="R59" s="35"/>
       <c r="S59" s="35"/>
@@ -4827,7 +5039,7 @@
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G60" s="28" t="s">
         <v>20</v>
@@ -4853,8 +5065,12 @@
       <c r="N60" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O60" s="35"/>
-      <c r="P60" s="35"/>
+      <c r="O60" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P60" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q60" s="35"/>
       <c r="R60" s="35"/>
       <c r="S60" s="35"/>
@@ -4883,7 +5099,7 @@
       </c>
       <c r="E61" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
@@ -4913,8 +5129,12 @@
       <c r="N61" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="O61" s="35"/>
-      <c r="P61" s="35"/>
+      <c r="O61" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="P61" s="29" t="s">
+        <v>23</v>
+      </c>
       <c r="Q61" s="35"/>
       <c r="R61" s="35"/>
       <c r="S61" s="35"/>
@@ -4947,7 +5167,7 @@
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G62" s="28" t="s">
         <v>20</v>
@@ -4973,8 +5193,12 @@
       <c r="N62" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O62" s="35"/>
-      <c r="P62" s="35"/>
+      <c r="O62" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P62" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q62" s="35"/>
       <c r="R62" s="35"/>
       <c r="S62" s="35"/>
@@ -5003,11 +5227,11 @@
       </c>
       <c r="E63" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G63" s="28" t="s">
         <v>20</v>
@@ -5033,8 +5257,12 @@
       <c r="N63" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O63" s="35"/>
-      <c r="P63" s="35"/>
+      <c r="O63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P63" s="29" t="s">
+        <v>23</v>
+      </c>
       <c r="Q63" s="35"/>
       <c r="R63" s="35"/>
       <c r="S63" s="35"/>
@@ -5067,7 +5295,7 @@
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G64" s="28" t="s">
         <v>20</v>
@@ -5093,8 +5321,12 @@
       <c r="N64" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O64" s="35"/>
-      <c r="P64" s="35"/>
+      <c r="O64" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P64" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q64" s="35"/>
       <c r="R64" s="35"/>
       <c r="S64" s="35"/>
@@ -5127,7 +5359,7 @@
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G65" s="28" t="s">
         <v>20</v>
@@ -5153,8 +5385,12 @@
       <c r="N65" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O65" s="35"/>
-      <c r="P65" s="35"/>
+      <c r="O65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P65" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q65" s="35"/>
       <c r="R65" s="35"/>
       <c r="S65" s="35"/>
@@ -5187,7 +5423,7 @@
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G66" s="28" t="s">
         <v>20</v>
@@ -5213,8 +5449,12 @@
       <c r="N66" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O66" s="35"/>
-      <c r="P66" s="35"/>
+      <c r="O66" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P66" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q66" s="35"/>
       <c r="R66" s="35"/>
       <c r="S66" s="35"/>
@@ -5247,7 +5487,7 @@
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G67" s="28" t="s">
         <v>20</v>
@@ -5273,8 +5513,12 @@
       <c r="N67" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O67" s="35"/>
-      <c r="P67" s="35"/>
+      <c r="O67" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P67" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q67" s="35"/>
       <c r="R67" s="35"/>
       <c r="S67" s="35"/>
@@ -5307,7 +5551,7 @@
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G68" s="28" t="s">
         <v>20</v>
@@ -5333,8 +5577,12 @@
       <c r="N68" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O68" s="35"/>
-      <c r="P68" s="35"/>
+      <c r="O68" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P68" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q68" s="35"/>
       <c r="R68" s="35"/>
       <c r="S68" s="35"/>
@@ -5367,7 +5615,7 @@
       </c>
       <c r="F69" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G69" s="28" t="s">
         <v>20</v>
@@ -5393,8 +5641,12 @@
       <c r="N69" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O69" s="35"/>
-      <c r="P69" s="35"/>
+      <c r="O69" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P69" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q69" s="35"/>
       <c r="R69" s="35"/>
       <c r="S69" s="35"/>
@@ -5423,11 +5675,11 @@
       </c>
       <c r="E70" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F70" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G70" s="28" t="s">
         <v>20</v>
@@ -5453,8 +5705,12 @@
       <c r="N70" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="O70" s="35"/>
-      <c r="P70" s="35"/>
+      <c r="O70" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="P70" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q70" s="35"/>
       <c r="R70" s="35"/>
       <c r="S70" s="35"/>
@@ -5483,11 +5739,11 @@
       </c>
       <c r="E71" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F71" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G71" s="28" t="s">
         <v>20</v>
@@ -5513,8 +5769,12 @@
       <c r="N71" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="O71" s="35"/>
-      <c r="P71" s="35"/>
+      <c r="O71" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="P71" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q71" s="35"/>
       <c r="R71" s="35"/>
       <c r="S71" s="35"/>
@@ -5547,7 +5807,7 @@
       </c>
       <c r="F72" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G72" s="28" t="s">
         <v>20</v>
@@ -5573,8 +5833,12 @@
       <c r="N72" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O72" s="35"/>
-      <c r="P72" s="35"/>
+      <c r="O72" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P72" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q72" s="35"/>
       <c r="R72" s="35"/>
       <c r="S72" s="35"/>
@@ -5607,7 +5871,7 @@
       </c>
       <c r="F73" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G73" s="28" t="s">
         <v>20</v>
@@ -5633,8 +5897,12 @@
       <c r="N73" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O73" s="35"/>
-      <c r="P73" s="35"/>
+      <c r="O73" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P73" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q73" s="35"/>
       <c r="R73" s="35"/>
       <c r="S73" s="35"/>
@@ -5667,7 +5935,7 @@
       </c>
       <c r="F74" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G74" s="28" t="s">
         <v>20</v>
@@ -5693,8 +5961,12 @@
       <c r="N74" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O74" s="35"/>
-      <c r="P74" s="35"/>
+      <c r="O74" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P74" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q74" s="35"/>
       <c r="R74" s="35"/>
       <c r="S74" s="35"/>
@@ -5723,11 +5995,11 @@
       </c>
       <c r="E75" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F75" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G75" s="28" t="s">
         <v>20</v>
@@ -5753,8 +6025,12 @@
       <c r="N75" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O75" s="35"/>
-      <c r="P75" s="35"/>
+      <c r="O75" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="P75" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q75" s="35"/>
       <c r="R75" s="35"/>
       <c r="S75" s="35"/>
@@ -5783,11 +6059,11 @@
       </c>
       <c r="E76" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F76" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G76" s="28" t="s">
         <v>20</v>
@@ -5813,8 +6089,12 @@
       <c r="N76" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O76" s="35"/>
-      <c r="P76" s="35"/>
+      <c r="O76" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="P76" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q76" s="35"/>
       <c r="R76" s="35"/>
       <c r="S76" s="35"/>
@@ -5847,7 +6127,7 @@
       </c>
       <c r="F77" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G77" s="28" t="s">
         <v>20</v>
@@ -5873,8 +6153,12 @@
       <c r="N77" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O77" s="35"/>
-      <c r="P77" s="35"/>
+      <c r="O77" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P77" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q77" s="35"/>
       <c r="R77" s="35"/>
       <c r="S77" s="35"/>
@@ -5903,11 +6187,11 @@
       </c>
       <c r="E78" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G78" s="28" t="s">
         <v>20</v>
@@ -5933,8 +6217,12 @@
       <c r="N78" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O78" s="35"/>
-      <c r="P78" s="35"/>
+      <c r="O78" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="P78" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q78" s="35"/>
       <c r="R78" s="35"/>
       <c r="S78" s="35"/>
@@ -5967,7 +6255,7 @@
       </c>
       <c r="F79" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G79" s="28" t="s">
         <v>20</v>
@@ -5993,8 +6281,12 @@
       <c r="N79" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O79" s="35"/>
-      <c r="P79" s="35"/>
+      <c r="O79" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P79" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q79" s="35"/>
       <c r="R79" s="35"/>
       <c r="S79" s="35"/>
@@ -6027,7 +6319,7 @@
       </c>
       <c r="F80" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G80" s="28" t="s">
         <v>20</v>
@@ -6053,8 +6345,12 @@
       <c r="N80" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O80" s="35"/>
-      <c r="P80" s="35"/>
+      <c r="O80" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P80" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q80" s="35"/>
       <c r="R80" s="35"/>
       <c r="S80" s="35"/>
@@ -6087,7 +6383,7 @@
       </c>
       <c r="F81" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G81" s="28" t="s">
         <v>20</v>
@@ -6113,8 +6409,12 @@
       <c r="N81" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O81" s="35"/>
-      <c r="P81" s="35"/>
+      <c r="O81" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P81" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q81" s="35"/>
       <c r="R81" s="35"/>
       <c r="S81" s="35"/>
@@ -6147,7 +6447,7 @@
       </c>
       <c r="F82" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G82" s="28" t="s">
         <v>20</v>
@@ -6173,8 +6473,12 @@
       <c r="N82" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O82" s="35"/>
-      <c r="P82" s="35"/>
+      <c r="O82" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P82" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q82" s="35"/>
       <c r="R82" s="35"/>
       <c r="S82" s="35"/>
@@ -6207,7 +6511,7 @@
       </c>
       <c r="F83" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G83" s="28" t="s">
         <v>20</v>
@@ -6233,8 +6537,12 @@
       <c r="N83" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O83" s="35"/>
-      <c r="P83" s="35"/>
+      <c r="O83" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P83" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q83" s="35"/>
       <c r="R83" s="35"/>
       <c r="S83" s="35"/>
@@ -6263,7 +6571,7 @@
       </c>
       <c r="E84" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F84" s="34">
         <f t="shared" si="2"/>
@@ -6293,8 +6601,12 @@
       <c r="N84" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O84" s="35"/>
-      <c r="P84" s="35"/>
+      <c r="O84" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="P84" s="29" t="s">
+        <v>23</v>
+      </c>
       <c r="Q84" s="35"/>
       <c r="R84" s="35"/>
       <c r="S84" s="35"/>
@@ -6327,7 +6639,7 @@
       </c>
       <c r="F85" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G85" s="28" t="s">
         <v>20</v>
@@ -6353,8 +6665,12 @@
       <c r="N85" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="O85" s="35"/>
-      <c r="P85" s="35"/>
+      <c r="O85" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P85" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q85" s="35"/>
       <c r="R85" s="35"/>
       <c r="S85" s="35"/>
